--- a/Resources/Lookup Changes.xlsx
+++ b/Resources/Lookup Changes.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\connachan.cara\Documents\pop_projections_shiny_tool\Data files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\connachan.cara\Documents\pop_projections_shiny_tool\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC68E1A-6BB7-4CAF-BC30-BE224DACCD89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8E8609-447C-47F7-A5D7-022DBEFE9BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3687BCDE-84BD-47C3-873F-9218EE481B65}"/>
   </bookViews>
@@ -19,6 +19,9 @@
   <externalReferences>
     <externalReference r:id="rId3"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Short Name Changes'!$A$1:$D$1</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="298">
   <si>
     <t>Airyhal</t>
   </si>
@@ -199,9 +202,6 @@
     <t>Mull and Iona</t>
   </si>
   <si>
-    <t>ClackamW</t>
-  </si>
-  <si>
     <t>Dumfries &amp; Galloway</t>
   </si>
   <si>
@@ -256,9 +256,6 @@
     <t>KilmarnS</t>
   </si>
   <si>
-    <t>KilmarnWaC</t>
-  </si>
-  <si>
     <t>Kilmarnock West and Crosshouse</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
     <t>Bonnybridge and Larbert</t>
   </si>
   <si>
-    <t>Careskin</t>
-  </si>
-  <si>
     <t>Carse, Kinnaird and Tryst</t>
   </si>
   <si>
@@ -370,9 +364,6 @@
     <t>West Fife and Coastal Villages</t>
   </si>
   <si>
-    <t>PatrickE</t>
-  </si>
-  <si>
     <t>Badenoch and Strathspey</t>
   </si>
   <si>
@@ -403,9 +394,6 @@
     <t>North Lanarkshire</t>
   </si>
   <si>
-    <t>Bellshill</t>
-  </si>
-  <si>
     <t>Gartcosh, Glenboig and Moodiesburn</t>
   </si>
   <si>
@@ -424,9 +412,6 @@
     <t>Kirkwall West and Orphir</t>
   </si>
   <si>
-    <t>NorthlsO</t>
-  </si>
-  <si>
     <t>Stromness and South Isles</t>
   </si>
   <si>
@@ -439,12 +424,6 @@
     <t>Blairgowrie and Glens</t>
   </si>
   <si>
-    <t>Srathal</t>
-  </si>
-  <si>
-    <t>Erskinel</t>
-  </si>
-  <si>
     <t>Scottish Borders</t>
   </si>
   <si>
@@ -898,9 +877,6 @@
     <t>TorFerry </t>
   </si>
   <si>
-    <t>ClackmaW</t>
-  </si>
-  <si>
     <t xml:space="preserve">Annick </t>
   </si>
   <si>
@@ -925,9 +901,6 @@
     <t xml:space="preserve">KilmarnS </t>
   </si>
   <si>
-    <t xml:space="preserve">KilmaWaC </t>
-  </si>
-  <si>
     <t xml:space="preserve">BearsdN </t>
   </si>
   <si>
@@ -947,24 +920,6 @@
   </si>
   <si>
     <t xml:space="preserve">Milngavi </t>
-  </si>
-  <si>
-    <t>CarseKin</t>
-  </si>
-  <si>
-    <t>PartickE</t>
-  </si>
-  <si>
-    <t>Bellshil</t>
-  </si>
-  <si>
-    <t>NorthIsO</t>
-  </si>
-  <si>
-    <t>Strathal</t>
-  </si>
-  <si>
-    <t>ErskineI</t>
   </si>
   <si>
     <t>New Name (Both now using the Shape file long name)</t>
@@ -3794,11 +3749,6 @@
             <v>TorFerry</v>
           </cell>
         </row>
-        <row r="15">
-          <cell r="C15" t="str">
-            <v>ClackamW</v>
-          </cell>
-        </row>
         <row r="16">
           <cell r="C16" t="str">
             <v>Annick</v>
@@ -3839,11 +3789,6 @@
             <v>KilmarnS</v>
           </cell>
         </row>
-        <row r="24">
-          <cell r="C24" t="str">
-            <v>KilmarnWaC</v>
-          </cell>
-        </row>
         <row r="25">
           <cell r="C25" t="str">
             <v>BearsdN</v>
@@ -3877,36 +3822,6 @@
         <row r="31">
           <cell r="C31" t="str">
             <v>Milngavi</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="C32" t="str">
-            <v>Careskin</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="C33" t="str">
-            <v>PatrickE</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="C34" t="str">
-            <v>Bellshill</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="C35" t="str">
-            <v>NorthlsO</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="C36" t="str">
-            <v>Srathal</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="C37" t="str">
-            <v>Erskinel</v>
           </cell>
         </row>
       </sheetData>
@@ -4214,7 +4129,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA736315-7140-49F0-AD2D-034A5A01A7CA}">
   <dimension ref="A1:D107"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -4225,13 +4140,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -4239,7 +4154,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -4253,7 +4168,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4267,7 +4182,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -4281,7 +4196,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -4295,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -4309,7 +4224,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -4323,7 +4238,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -4337,7 +4252,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
@@ -4351,7 +4266,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C10" t="s">
         <v>19</v>
@@ -4365,7 +4280,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -4379,7 +4294,7 @@
         <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
@@ -4393,7 +4308,7 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C13" t="s">
         <v>25</v>
@@ -4407,7 +4322,7 @@
         <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C14" t="s">
         <v>26</v>
@@ -4421,7 +4336,7 @@
         <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -4435,7 +4350,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
@@ -4449,7 +4364,7 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -4463,7 +4378,7 @@
         <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C18" t="s">
         <v>31</v>
@@ -4477,7 +4392,7 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C19" t="s">
         <v>32</v>
@@ -4491,7 +4406,7 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C20" t="s">
         <v>33</v>
@@ -4505,7 +4420,7 @@
         <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C21" t="s">
         <v>34</v>
@@ -4519,7 +4434,7 @@
         <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C22" t="s">
         <v>35</v>
@@ -4533,7 +4448,7 @@
         <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
@@ -4547,7 +4462,7 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -4561,7 +4476,7 @@
         <v>27</v>
       </c>
       <c r="B25" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
@@ -4575,7 +4490,7 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C26" t="s">
         <v>39</v>
@@ -4589,7 +4504,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C27" t="s">
         <v>41</v>
@@ -4603,7 +4518,7 @@
         <v>40</v>
       </c>
       <c r="B28" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
         <v>42</v>
@@ -4617,7 +4532,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C29" t="s">
         <v>43</v>
@@ -4631,7 +4546,7 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C30" t="s">
         <v>44</v>
@@ -4645,7 +4560,7 @@
         <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C31" t="s">
         <v>45</v>
@@ -4659,7 +4574,7 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
         <v>46</v>
@@ -4673,7 +4588,7 @@
         <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -4687,7 +4602,7 @@
         <v>48</v>
       </c>
       <c r="B34" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -4701,7 +4616,7 @@
         <v>48</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C35" t="s">
         <v>50</v>
@@ -4715,7 +4630,7 @@
         <v>48</v>
       </c>
       <c r="B36" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
@@ -4729,7 +4644,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C37" t="s">
         <v>52</v>
@@ -4743,7 +4658,7 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C38" t="s">
         <v>53</v>
@@ -4754,968 +4669,968 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" t="s">
         <v>55</v>
       </c>
-      <c r="B39" t="s">
-        <v>203</v>
-      </c>
-      <c r="C39" t="s">
-        <v>56</v>
-      </c>
       <c r="D39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B40" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B41" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D44" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D47" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B49" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B50" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B51" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D51" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B53" t="s">
+        <v>209</v>
+      </c>
+      <c r="C53" t="s">
         <v>87</v>
       </c>
-      <c r="B53" t="s">
-        <v>217</v>
-      </c>
-      <c r="C53" t="s">
-        <v>89</v>
-      </c>
       <c r="D53" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B54" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" t="s">
         <v>94</v>
       </c>
-      <c r="B58" t="s">
-        <v>222</v>
-      </c>
-      <c r="C58" t="s">
-        <v>97</v>
-      </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D62" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>97</v>
+      </c>
+      <c r="B63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C63" t="s">
         <v>100</v>
       </c>
-      <c r="B63" t="s">
-        <v>227</v>
-      </c>
-      <c r="C63" t="s">
-        <v>103</v>
-      </c>
       <c r="D63" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D64" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B65" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B66" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B67" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C67" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B68" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C68" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B69" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C69" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D69" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D70" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B71" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D71" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B72" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B73" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C73" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B74" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C74" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B75" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C75" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B76" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C76" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B77" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C77" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D77" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B78" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D78" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B79" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D79" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C80" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="D80" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C81" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D81" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B82" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C82" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D82" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C83" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D83" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C84" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D84" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B85" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C85" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D85" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C86" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="D86" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B87" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C87" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D87" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B88" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C88" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D88" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B89" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C89" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B90" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C90" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D90" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B91" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C91" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D91" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B92" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C92" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B93" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C93" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D93" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B94" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C94" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D94" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B95" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C95" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="D95" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B96" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C96" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="D96" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B97" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C97" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D97" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C98" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D98" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B99" t="s">
+        <v>255</v>
+      </c>
+      <c r="C99" t="s">
         <v>144</v>
       </c>
-      <c r="B99" t="s">
-        <v>263</v>
-      </c>
-      <c r="C99" t="s">
-        <v>152</v>
-      </c>
       <c r="D99" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B100" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C100" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D100" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C101" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="D101" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B102" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C102" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D102" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B103" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C103" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="D103" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B104" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C104" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D104" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B105" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C105" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="D105" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B106" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C106" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D106" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B107" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C107" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D107" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -5725,10 +5640,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88159FC9-125C-4960-B11E-EF32BCBF7347}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5739,16 +5654,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -5757,7 +5672,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -5772,7 +5687,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -5787,7 +5702,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -5802,7 +5717,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
@@ -5817,7 +5732,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -5832,7 +5747,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C7" t="s">
         <v>10</v>
@@ -5847,7 +5762,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C8" t="s">
         <v>12</v>
@@ -5862,7 +5777,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -5877,7 +5792,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B10" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -5892,7 +5807,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B11" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -5907,7 +5822,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -5922,7 +5837,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B13" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
@@ -5937,7 +5852,7 @@
         <v>Aberdeen City</v>
       </c>
       <c r="B14" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C14" t="s">
         <v>24</v>
@@ -5951,52 +5866,52 @@
         <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C15" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="D15" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="array" ref="A16">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C15,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>Clackmannanshire</v>
+        <f t="array" ref="A16">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C16,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <v>East Ayrshire</v>
       </c>
       <c r="B16" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f t="array" ref="A17">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C16,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A17">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C17,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B17" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="array" ref="A18">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C17,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A18">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C18,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B18" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C18" t="s">
         <v>64</v>
@@ -6007,26 +5922,26 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f t="array" ref="A19">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C18,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A19">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C19,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B19" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D19" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="array" ref="A20">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C19,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A20">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C20,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B20" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C20" t="s">
         <v>67</v>
@@ -6037,11 +5952,11 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f t="array" ref="A21">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C20,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A21">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C21,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B21" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -6052,26 +5967,26 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f t="array" ref="A22">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C21,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A22">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C22,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B22" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="array" ref="A23">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C22,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A23">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C23,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B23" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C23" t="s">
         <v>71</v>
@@ -6082,230 +5997,111 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="array" ref="A24">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C23,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>East Ayrshire</v>
+        <f t="array" ref="A24">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C25,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <v>East Dunbartonshire</v>
       </c>
       <c r="B24" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="array" ref="A25">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C24,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>East Ayrshire</v>
+        <f t="array" ref="A25">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C26,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <v>East Dunbartonshire</v>
       </c>
       <c r="B25" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="array" ref="A26">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C25,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A26">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C27,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B26" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="array" ref="A27">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C26,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A27">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C28,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B27" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="array" ref="A28">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C27,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A28">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C29,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B28" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="array" ref="A29">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C28,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A29">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C30,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B29" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
-        <f t="array" ref="A30">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C29,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A30">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C31,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B30" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="str">
-        <f t="array" ref="A31">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C30,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>East Dunbartonshire</v>
-      </c>
-      <c r="B31" t="s">
-        <v>302</v>
-      </c>
-      <c r="C31" t="s">
         <v>83</v>
       </c>
-      <c r="D31" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="str">
-        <f t="array" ref="A32">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C31,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>East Dunbartonshire</v>
-      </c>
-      <c r="B32" t="s">
-        <v>303</v>
-      </c>
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="str">
-        <f t="array" ref="A33">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C32,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>Falkirk</v>
-      </c>
-      <c r="B33" t="s">
-        <v>304</v>
-      </c>
-      <c r="C33" t="s">
-        <v>96</v>
-      </c>
-      <c r="D33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="str">
-        <f t="array" ref="A34">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C33,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>Glasgow City</v>
-      </c>
-      <c r="B34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C34" t="s">
-        <v>111</v>
-      </c>
-      <c r="D34" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="str">
-        <f t="array" ref="A35">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C34,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>North Lanarkshire</v>
-      </c>
-      <c r="B35" t="s">
-        <v>306</v>
-      </c>
-      <c r="C35" t="s">
-        <v>122</v>
-      </c>
-      <c r="D35" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="str">
-        <f t="array" ref="A36">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C35,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>Orkney Islands</v>
-      </c>
-      <c r="B36" t="s">
-        <v>307</v>
-      </c>
-      <c r="C36" t="s">
-        <v>129</v>
-      </c>
-      <c r="D36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="str">
-        <f t="array" ref="A37">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C36,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>Perth &amp; Kinross</v>
-      </c>
-      <c r="B37" t="s">
-        <v>308</v>
-      </c>
-      <c r="C37" t="s">
-        <v>134</v>
-      </c>
-      <c r="D37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="str">
-        <f t="array" ref="A38">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C37,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>Renfrewshire</v>
-      </c>
-      <c r="B38" t="s">
-        <v>309</v>
-      </c>
-      <c r="C38" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" t="s">
-        <v>135</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{E130D169-DB9C-4091-B90E-A11CBE67B3C9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Resources/Lookup Changes.xlsx
+++ b/Resources/Lookup Changes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\connachan.cara\Documents\pop_projections_shiny_tool\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8E8609-447C-47F7-A5D7-022DBEFE9BBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2291F83-95B4-46BC-B43F-8FC9F6DFC842}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{3687BCDE-84BD-47C3-873F-9218EE481B65}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="296">
   <si>
     <t>Airyhal</t>
   </si>
@@ -926,12 +926,6 @@
   </si>
   <si>
     <t>Council Name</t>
-  </si>
-  <si>
-    <t>ArbroEaL</t>
-  </si>
-  <si>
-    <t>ArbroEal</t>
   </si>
 </sst>
 </file>
@@ -5640,10 +5634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88159FC9-125C-4960-B11E-EF32BCBF7347}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5862,241 +5856,227 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
+      <c r="A15" t="str">
+        <f t="array" ref="A15">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C16,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <v>East Ayrshire</v>
       </c>
       <c r="B15" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="C15" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>297</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
-        <f t="array" ref="A16">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C16,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A16">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C17,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
-        <f t="array" ref="A17">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C17,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A17">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C18,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B17" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
-        <f t="array" ref="A18">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C18,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A18">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C19,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D18" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
-        <f t="array" ref="A19">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C19,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A19">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C20,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
-        <f t="array" ref="A20">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C20,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A20">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C21,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B20" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
-        <f t="array" ref="A21">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C21,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A21">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C22,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B21" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
-        <f t="array" ref="A22">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C22,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A22">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C23,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Ayrshire</v>
       </c>
       <c r="B22" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
-        <f t="array" ref="A23">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C23,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>East Ayrshire</v>
+        <f t="array" ref="A23">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C25,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <v>East Dunbartonshire</v>
       </c>
       <c r="B23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
-        <f t="array" ref="A24">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C25,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A24">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C26,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B24" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
-        <f t="array" ref="A25">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C26,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A25">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C27,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B25" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
-        <f t="array" ref="A26">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C27,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A26">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C28,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B26" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D26" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
-        <f t="array" ref="A27">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C28,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A27">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C29,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B27" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
-        <f t="array" ref="A28">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C29,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A28">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C30,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B28" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
-        <f t="array" ref="A29">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C30,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
+        <f t="array" ref="A29">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C31,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
         <v>East Dunbartonshire</v>
       </c>
       <c r="B29" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="str">
-        <f t="array" ref="A30">INDEX('[1]Lookup Changes'!$C$2:$C$346,MATCH('[1]Short Name errors'!C31,'[1]Lookup Changes'!$A$2:$A$346,0))</f>
-        <v>East Dunbartonshire</v>
-      </c>
-      <c r="B30" t="s">
-        <v>293</v>
-      </c>
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" t="s">
         <v>83</v>
       </c>
     </row>
